--- a/biology/Zoologie/Calao_à_casque_rouge/Calao_à_casque_rouge.xlsx
+++ b/biology/Zoologie/Calao_à_casque_rouge/Calao_à_casque_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_casque_rouge</t>
+          <t>Calao_à_casque_rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhabdotorrhinus corrugatus
 Le Calao à casque rouge (Rhabdotorrhinus corrugatus, anciennement Aceros corrugatus) est une espèce asiatique d'oiseaux appartenant à la famille des bucérotidés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_casque_rouge</t>
+          <t>Calao_à_casque_rouge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À la suite de l'étude phylogénique de Gonzalez et al. (2013), le Congrès ornithologique international (dans sa version 4.4, 2014) déplace cette espèce depuis le genre Aceros vers le genre Rhabdotorrhinus.
-Sous-espèces
-D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
-Aceros corrugatus rugosus  (Begbie) 1834 ;
-Aceros corrugatus corrugatus  (Temminck) 1832.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite de l'étude phylogénique de Gonzalez et al. (2013), le Congrès ornithologique international (dans sa version 4.4, 2014) déplace cette espèce depuis le genre Aceros vers le genre Rhabdotorrhinus.
+</t>
         </is>
       </c>
     </row>
@@ -528,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_casque_rouge</t>
+          <t>Calao_à_casque_rouge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +554,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mesurant 70 cm pour 15 kg, cette espèce de calao a une espérance de vie de 25 ans. Le mâle a un gros casque rouge-orangé au-dessus du bec, alors que celui de la femelle est jaune pâle, beaucoup plus petit avec le pourtour des yeux et le gosier bleu. 
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
+Aceros corrugatus rugosus  (Begbie) 1834 ;
+Aceros corrugatus corrugatus  (Temminck) 1832.</t>
         </is>
       </c>
     </row>
@@ -559,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_casque_rouge</t>
+          <t>Calao_à_casque_rouge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,12 +592,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Calao à casque rouge vit dans le sud de la Thaïlande, en Malaisie, à Sumatra et à Bornéo.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mesurant 70 cm pour 15 kg, cette espèce de calao a une espérance de vie de 25 ans. Le mâle a un gros casque rouge-orangé au-dessus du bec, alors que celui de la femelle est jaune pâle, beaucoup plus petit avec le pourtour des yeux et le gosier bleu. 
 </t>
         </is>
       </c>
@@ -590,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_casque_rouge</t>
+          <t>Calao_à_casque_rouge</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +625,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Calao à casque rouge vit dans le sud de la Thaïlande, en Malaisie, à Sumatra et à Bornéo.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Calao_à_casque_rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calao_%C3%A0_casque_rouge</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce calao est menacé par le braconnage, l'exploitation forestière et la monoculture. Son territoire a été réduit de 60 % ces dernières années. 
 </t>
